--- a/src/file/项目进度及分工表---药房管理.xlsx
+++ b/src/file/项目进度及分工表---药房管理.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\药房管理（新）\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5934813-5AFF-403F-8F7B-01DF1C82D8A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度控制表" sheetId="1" r:id="rId1"/>
     <sheet name="项目功能任务表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A68:F96"/>
 </workbook>
 </file>
 
@@ -808,7 +803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1663,228 +1658,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1900,9 +1673,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1930,9 +1700,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1940,9 +1707,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1988,15 +1752,246 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规_清单" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="好 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规_清单" xfId="4"/>
+    <cellStyle name="好 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2297,214 +2292,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="144" customWidth="1"/>
-    <col min="2" max="2" width="10" style="144" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="144" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="144" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="144" customWidth="1"/>
-    <col min="6" max="7" width="14" style="144" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="144" customWidth="1"/>
-    <col min="9" max="9" width="9" style="144"/>
-    <col min="10" max="10" width="11.75" style="144" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="144" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="144"/>
+    <col min="1" max="1" width="19.625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="10" style="67" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="67" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="67" customWidth="1"/>
+    <col min="6" max="7" width="14" style="67" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9" style="67"/>
+    <col min="10" max="10" width="11.75" style="67" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="67" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="145"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="145"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="149"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="145"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="26"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="149"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="145"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="105"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="3"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="149"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="145"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="149"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="36"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="3"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="147"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="3"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
@@ -2517,350 +2512,350 @@
         <v>15</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="27"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="27"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="27"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="38"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="38"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="38"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="66"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="66"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
     </row>
     <row r="28" spans="1:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="44" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="40"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="31"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="43"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D31" s="43"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="43"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="43"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
@@ -2871,12 +2866,12 @@
         <v>85</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
@@ -2887,12 +2882,12 @@
         <v>105</v>
       </c>
       <c r="D36" s="37"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
@@ -2903,12 +2898,12 @@
         <v>106</v>
       </c>
       <c r="D37" s="37"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
@@ -2919,12 +2914,12 @@
         <v>107</v>
       </c>
       <c r="D38" s="37"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" spans="1:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -2935,12 +2930,12 @@
         <v>46</v>
       </c>
       <c r="D39" s="32"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
@@ -2951,34 +2946,34 @@
         <v>93</v>
       </c>
       <c r="D40" s="41"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="154"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="151"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="151"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -2999,11 +2994,11 @@
       <c r="F43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="155"/>
-      <c r="J43" s="151"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="131" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="46" t="s">
@@ -3021,11 +3016,11 @@
       <c r="F44" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="I44" s="155"/>
-      <c r="J44" s="151"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="48"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="46" t="s">
         <v>53</v>
       </c>
@@ -3041,11 +3036,11 @@
       <c r="F45" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="I45" s="155"/>
-      <c r="J45" s="151"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="48"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="46" t="s">
         <v>60</v>
       </c>
@@ -3061,11 +3056,11 @@
       <c r="F46" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="155"/>
-      <c r="J46" s="151"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="48"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="46" t="s">
         <v>54</v>
       </c>
@@ -3081,11 +3076,11 @@
       <c r="F47" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="I47" s="155"/>
-      <c r="J47" s="151"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="74"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="46" t="s">
         <v>61</v>
       </c>
@@ -3101,11 +3096,11 @@
       <c r="F48" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="I48" s="155"/>
-      <c r="J48" s="151"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="49"/>
+      <c r="A49" s="133"/>
       <c r="B49" s="46" t="s">
         <v>63</v>
       </c>
@@ -3121,11 +3116,11 @@
       <c r="F49" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="I49" s="155"/>
-      <c r="J49" s="151"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="74"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="134" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3143,11 +3138,11 @@
       <c r="F50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I50" s="155"/>
-      <c r="J50" s="151"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="74"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="51"/>
+      <c r="A51" s="135"/>
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
@@ -3163,11 +3158,11 @@
       <c r="F51" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I51" s="155"/>
-      <c r="J51" s="151"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="74"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="51"/>
+      <c r="A52" s="135"/>
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
@@ -3183,11 +3178,11 @@
       <c r="F52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I52" s="155"/>
-      <c r="J52" s="151"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="74"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="51"/>
+      <c r="A53" s="135"/>
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3203,11 +3198,11 @@
       <c r="F53" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I53" s="155"/>
-      <c r="J53" s="151"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="74"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="51"/>
+      <c r="A54" s="135"/>
       <c r="B54" s="3" t="s">
         <v>58</v>
       </c>
@@ -3223,11 +3218,11 @@
       <c r="F54" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I54" s="155"/>
-      <c r="J54" s="151"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="74"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="51"/>
+      <c r="A55" s="135"/>
       <c r="B55" s="3" t="s">
         <v>149</v>
       </c>
@@ -3243,8 +3238,8 @@
       <c r="F55" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I55" s="155"/>
-      <c r="J55" s="151"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="74"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="45"/>
@@ -3263,11 +3258,11 @@
       <c r="F56" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I56" s="155"/>
-      <c r="J56" s="151"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="74"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="131" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="46" t="s">
@@ -3285,11 +3280,11 @@
       <c r="F57" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="I57" s="155"/>
-      <c r="J57" s="151"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="74"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="48"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="46" t="s">
         <v>65</v>
       </c>
@@ -3305,10 +3300,10 @@
       <c r="F58" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="I58" s="145"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="46" t="s">
         <v>66</v>
       </c>
@@ -3324,10 +3319,10 @@
       <c r="F59" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="I59" s="145"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="48"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="46" t="s">
         <v>72</v>
       </c>
@@ -3343,10 +3338,10 @@
       <c r="F60" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="I60" s="145"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="48"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="46" t="s">
         <v>92</v>
       </c>
@@ -3362,10 +3357,10 @@
       <c r="F61" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="I61" s="145"/>
+      <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="48"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="46" t="s">
         <v>147</v>
       </c>
@@ -3381,10 +3376,10 @@
       <c r="F62" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="I62" s="145"/>
+      <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="48"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="46" t="s">
         <v>148</v>
       </c>
@@ -3400,10 +3395,10 @@
       <c r="F63" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="I63" s="145"/>
+      <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="134" t="s">
         <v>47</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3421,10 +3416,10 @@
       <c r="F64" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I64" s="145"/>
+      <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="51"/>
+      <c r="A65" s="135"/>
       <c r="B65" s="3" t="s">
         <v>202</v>
       </c>
@@ -3440,10 +3435,10 @@
       <c r="F65" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I65" s="145"/>
+      <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="51"/>
+      <c r="A66" s="135"/>
       <c r="B66" s="3" t="s">
         <v>75</v>
       </c>
@@ -3459,10 +3454,10 @@
       <c r="F66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I66" s="145"/>
+      <c r="I66" s="68"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="51"/>
+      <c r="A67" s="135"/>
       <c r="B67" s="3" t="s">
         <v>76</v>
       </c>
@@ -3478,10 +3473,10 @@
       <c r="F67" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I67" s="145"/>
+      <c r="I67" s="68"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="51"/>
+      <c r="A68" s="135"/>
       <c r="B68" s="3" t="s">
         <v>77</v>
       </c>
@@ -3497,10 +3492,10 @@
       <c r="F68" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I68" s="145"/>
+      <c r="I68" s="68"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="51"/>
+      <c r="A69" s="135"/>
       <c r="B69" s="3" t="s">
         <v>203</v>
       </c>
@@ -3516,10 +3511,10 @@
       <c r="F69" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I69" s="145"/>
+      <c r="I69" s="68"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="51"/>
+      <c r="A70" s="135"/>
       <c r="B70" s="3" t="s">
         <v>204</v>
       </c>
@@ -3535,10 +3530,10 @@
       <c r="F70" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I70" s="145"/>
+      <c r="I70" s="68"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="51"/>
+      <c r="A71" s="135"/>
       <c r="B71" s="3" t="s">
         <v>78</v>
       </c>
@@ -3554,10 +3549,10 @@
       <c r="F71" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I71" s="145"/>
+      <c r="I71" s="68"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="51"/>
+      <c r="A72" s="135"/>
       <c r="B72" s="3" t="s">
         <v>79</v>
       </c>
@@ -3573,10 +3568,10 @@
       <c r="F72" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I72" s="145"/>
+      <c r="I72" s="68"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="51"/>
+      <c r="A73" s="135"/>
       <c r="B73" s="3" t="s">
         <v>205</v>
       </c>
@@ -3592,10 +3587,10 @@
       <c r="F73" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I73" s="145"/>
+      <c r="I73" s="68"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="51"/>
+      <c r="A74" s="135"/>
       <c r="B74" s="3" t="s">
         <v>142</v>
       </c>
@@ -3611,10 +3606,10 @@
       <c r="F74" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I74" s="145"/>
+      <c r="I74" s="68"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
+      <c r="A75" s="136"/>
       <c r="B75" s="3" t="s">
         <v>143</v>
       </c>
@@ -3630,10 +3625,10 @@
       <c r="F75" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I75" s="145"/>
+      <c r="I75" s="68"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="137" t="s">
         <v>108</v>
       </c>
       <c r="B76" s="46" t="s">
@@ -3651,11 +3646,11 @@
       <c r="F76" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="G76" s="145"/>
-      <c r="I76" s="145"/>
+      <c r="G76" s="68"/>
+      <c r="I76" s="68"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="53"/>
+      <c r="A77" s="137"/>
       <c r="B77" s="46" t="s">
         <v>101</v>
       </c>
@@ -3671,11 +3666,11 @@
       <c r="F77" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="G77" s="145"/>
-      <c r="I77" s="145"/>
+      <c r="G77" s="68"/>
+      <c r="I77" s="68"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="53"/>
+      <c r="A78" s="137"/>
       <c r="B78" s="46" t="s">
         <v>102</v>
       </c>
@@ -3691,11 +3686,11 @@
       <c r="F78" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G78" s="145"/>
-      <c r="I78" s="145"/>
+      <c r="G78" s="68"/>
+      <c r="I78" s="68"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="53"/>
+      <c r="A79" s="137"/>
       <c r="B79" s="46" t="s">
         <v>103</v>
       </c>
@@ -3711,11 +3706,11 @@
       <c r="F79" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="G79" s="145"/>
-      <c r="I79" s="145"/>
+      <c r="G79" s="68"/>
+      <c r="I79" s="68"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="53"/>
+      <c r="A80" s="137"/>
       <c r="B80" s="46" t="s">
         <v>104</v>
       </c>
@@ -3731,11 +3726,11 @@
       <c r="F80" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="G80" s="145"/>
-      <c r="I80" s="145"/>
+      <c r="G80" s="68"/>
+      <c r="I80" s="68"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="53"/>
+      <c r="A81" s="137"/>
       <c r="B81" s="46" t="s">
         <v>144</v>
       </c>
@@ -3751,11 +3746,11 @@
       <c r="F81" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="G81" s="145"/>
-      <c r="I81" s="145"/>
+      <c r="G81" s="68"/>
+      <c r="I81" s="68"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="53"/>
+      <c r="A82" s="137"/>
       <c r="B82" s="46" t="s">
         <v>145</v>
       </c>
@@ -3771,26 +3766,46 @@
       <c r="F82" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="G82" s="145"/>
-      <c r="I82" s="145"/>
+      <c r="G82" s="68"/>
+      <c r="I82" s="68"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="147"/>
-      <c r="B83" s="147"/>
-      <c r="C83" s="147"/>
-      <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="147"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E22:F22"/>
@@ -3804,47 +3819,27 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A11">
       <formula1>$K$6:$K$7</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E40" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E40">
       <formula1>42916</formula1>
       <formula2>42923</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D82" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D82">
       <formula1>$J$6:$J$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3854,11 +3849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3877,1270 +3872,1263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
+      <c r="A1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="L2" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="112" t="s">
+      <c r="N2" s="154" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="155"/>
     </row>
     <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="119">
+      <c r="A4" s="146">
         <v>1</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="123" t="s">
+      <c r="B4" s="147"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="131"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="132" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="135">
+      <c r="E6" s="59"/>
+      <c r="F6" s="60">
         <v>1</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="137" t="s">
+      <c r="H6" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="139"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="132" t="s">
+      <c r="A7" s="143"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="135">
+      <c r="E7" s="59"/>
+      <c r="F7" s="60">
         <v>1</v>
       </c>
-      <c r="G7" s="140"/>
-      <c r="H7" s="137" t="s">
+      <c r="G7" s="139"/>
+      <c r="H7" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="139"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="132" t="s">
+      <c r="A8" s="143"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135">
+      <c r="E8" s="59"/>
+      <c r="F8" s="60">
         <v>2</v>
       </c>
-      <c r="G8" s="140"/>
-      <c r="H8" s="137" t="s">
+      <c r="G8" s="139"/>
+      <c r="H8" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I8" s="137" t="s">
+      <c r="I8" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="139"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="126"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="132" t="s">
+      <c r="A9" s="143"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135">
+      <c r="E9" s="59"/>
+      <c r="F9" s="60">
         <v>0.5</v>
       </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="137" t="s">
+      <c r="G9" s="139"/>
+      <c r="H9" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="137" t="s">
+      <c r="I9" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="139"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="126"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="132" t="s">
+      <c r="A10" s="143"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135">
+      <c r="E10" s="59"/>
+      <c r="F10" s="60">
         <v>2</v>
       </c>
-      <c r="G10" s="140"/>
-      <c r="H10" s="137" t="s">
+      <c r="G10" s="139"/>
+      <c r="H10" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="I10" s="137" t="s">
+      <c r="I10" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="126"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="132" t="s">
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135">
+      <c r="E11" s="59"/>
+      <c r="F11" s="60">
         <v>0.5</v>
       </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="137" t="s">
+      <c r="G11" s="140"/>
+      <c r="H11" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="I11" s="137" t="s">
+      <c r="I11" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="139"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="127" t="s">
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="128" t="s">
+      <c r="E12" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="131"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="132" t="s">
+      <c r="A13" s="143"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135">
+      <c r="E13" s="59"/>
+      <c r="F13" s="60">
         <v>2</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="137" t="s">
+      <c r="H13" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="137" t="s">
+      <c r="I13" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="139"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="132" t="s">
+      <c r="A14" s="143"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="133" t="s">
+      <c r="D14" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60">
         <v>2</v>
       </c>
-      <c r="G14" s="140"/>
-      <c r="H14" s="137" t="s">
+      <c r="G14" s="139"/>
+      <c r="H14" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="137" t="s">
+      <c r="I14" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="139"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="132" t="s">
+      <c r="A15" s="143"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135">
+      <c r="E15" s="59"/>
+      <c r="F15" s="60">
         <v>2</v>
       </c>
-      <c r="G15" s="140"/>
-      <c r="H15" s="137" t="s">
+      <c r="G15" s="139"/>
+      <c r="H15" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="137" t="s">
+      <c r="I15" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="139"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="132" t="s">
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135">
+      <c r="E16" s="59"/>
+      <c r="F16" s="60">
         <v>2</v>
       </c>
-      <c r="G16" s="140"/>
-      <c r="H16" s="137" t="s">
+      <c r="G16" s="139"/>
+      <c r="H16" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="137" t="s">
+      <c r="I16" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="139"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="126"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="132" t="s">
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D17" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135">
+      <c r="E17" s="59"/>
+      <c r="F17" s="60">
         <v>2</v>
       </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="137" t="s">
+      <c r="G17" s="139"/>
+      <c r="H17" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="137" t="s">
+      <c r="I17" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="139"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="126"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="132" t="s">
+      <c r="A18" s="143"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135">
+      <c r="E18" s="59"/>
+      <c r="F18" s="60">
         <v>0.5</v>
       </c>
-      <c r="G18" s="140"/>
-      <c r="H18" s="137" t="s">
+      <c r="G18" s="139"/>
+      <c r="H18" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="137" t="s">
+      <c r="I18" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="126"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="132" t="s">
+      <c r="A19" s="143"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="133" t="s">
+      <c r="D19" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135">
+      <c r="E19" s="59"/>
+      <c r="F19" s="60">
         <v>0.5</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="137" t="s">
+      <c r="G19" s="140"/>
+      <c r="H19" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="137" t="s">
+      <c r="I19" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="139"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="126"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="127" t="s">
+      <c r="A20" s="143"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="128" t="s">
+      <c r="E20" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="131"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="132" t="s">
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135">
+      <c r="E21" s="59"/>
+      <c r="F21" s="60">
         <v>2</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="137" t="s">
+      <c r="H21" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="137" t="s">
+      <c r="I21" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="139"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="132" t="s">
+      <c r="A22" s="143"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135">
+      <c r="E22" s="59"/>
+      <c r="F22" s="60">
         <v>2</v>
       </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="137" t="s">
+      <c r="G22" s="139"/>
+      <c r="H22" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="137" t="s">
+      <c r="I22" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="139"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="132" t="s">
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="133" t="s">
+      <c r="D23" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135">
+      <c r="E23" s="59"/>
+      <c r="F23" s="60">
         <v>2</v>
       </c>
-      <c r="G23" s="140"/>
-      <c r="H23" s="137" t="s">
+      <c r="G23" s="139"/>
+      <c r="H23" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="137" t="s">
+      <c r="I23" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="139"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="126"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="132" t="s">
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="133" t="s">
+      <c r="D24" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135">
+      <c r="E24" s="59"/>
+      <c r="F24" s="60">
         <v>2</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="137" t="s">
+      <c r="G24" s="140"/>
+      <c r="H24" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="137" t="s">
+      <c r="I24" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="139"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="63"/>
     </row>
     <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="126"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127" t="s">
+      <c r="A25" s="143"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="128" t="s">
+      <c r="E25" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="131"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="126"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="132" t="s">
+      <c r="A26" s="143"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="134"/>
-      <c r="F26" s="141">
+      <c r="E26" s="59"/>
+      <c r="F26" s="64">
         <v>2</v>
       </c>
-      <c r="G26" s="136" t="s">
+      <c r="G26" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="137" t="s">
+      <c r="H26" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="137" t="s">
+      <c r="I26" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="139"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="63"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="126"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="132" t="s">
+      <c r="A27" s="143"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="141">
+      <c r="E27" s="59"/>
+      <c r="F27" s="64">
         <v>0.5</v>
       </c>
-      <c r="G27" s="140"/>
-      <c r="H27" s="137" t="s">
+      <c r="G27" s="139"/>
+      <c r="H27" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="137" t="s">
+      <c r="I27" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="139"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="126"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="132" t="s">
+      <c r="A28" s="143"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="133" t="s">
+      <c r="D28" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="134"/>
-      <c r="F28" s="141">
+      <c r="E28" s="59"/>
+      <c r="F28" s="64">
         <v>0.5</v>
       </c>
-      <c r="G28" s="116"/>
-      <c r="H28" s="137" t="s">
+      <c r="G28" s="140"/>
+      <c r="H28" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="137" t="s">
+      <c r="I28" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="139"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
     </row>
     <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="126"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="127" t="s">
+      <c r="D29" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="128" t="s">
+      <c r="E29" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="131"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="132" t="s">
+      <c r="A30" s="143"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="133" t="s">
+      <c r="D30" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="141">
+      <c r="E30" s="59"/>
+      <c r="F30" s="64">
         <v>2</v>
       </c>
-      <c r="G30" s="136" t="s">
+      <c r="G30" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="137" t="s">
+      <c r="H30" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="137" t="s">
+      <c r="I30" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="139"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="126"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="132" t="s">
+      <c r="A31" s="143"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="133" t="s">
+      <c r="D31" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="141">
+      <c r="E31" s="59"/>
+      <c r="F31" s="64">
         <v>2</v>
       </c>
-      <c r="G31" s="140"/>
-      <c r="H31" s="137" t="s">
+      <c r="G31" s="139"/>
+      <c r="H31" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="137" t="s">
+      <c r="I31" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="139"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="126"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="132" t="s">
+      <c r="A32" s="143"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="134"/>
-      <c r="F32" s="141">
+      <c r="E32" s="59"/>
+      <c r="F32" s="64">
         <v>2</v>
       </c>
-      <c r="G32" s="140"/>
-      <c r="H32" s="137" t="s">
+      <c r="G32" s="139"/>
+      <c r="H32" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="I32" s="137" t="s">
+      <c r="I32" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="139"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="126"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="132" t="s">
+      <c r="A33" s="143"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="133" t="s">
+      <c r="D33" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="134"/>
-      <c r="F33" s="141">
+      <c r="E33" s="59"/>
+      <c r="F33" s="64">
         <v>2</v>
       </c>
-      <c r="G33" s="140"/>
-      <c r="H33" s="137" t="s">
+      <c r="G33" s="139"/>
+      <c r="H33" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="137" t="s">
+      <c r="I33" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="J33" s="138"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
-      <c r="N33" s="139"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="126"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="132" t="s">
+      <c r="A34" s="143"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="133" t="s">
+      <c r="D34" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="134"/>
-      <c r="F34" s="141">
+      <c r="E34" s="59"/>
+      <c r="F34" s="64">
         <v>2</v>
       </c>
-      <c r="G34" s="140"/>
-      <c r="H34" s="137" t="s">
+      <c r="G34" s="139"/>
+      <c r="H34" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="I34" s="137" t="s">
+      <c r="I34" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="139"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="126"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="132" t="s">
+      <c r="A35" s="143"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="133" t="s">
+      <c r="D35" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="141">
+      <c r="E35" s="59"/>
+      <c r="F35" s="64">
         <v>2</v>
       </c>
-      <c r="G35" s="140"/>
-      <c r="H35" s="137" t="s">
+      <c r="G35" s="139"/>
+      <c r="H35" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="I35" s="137" t="s">
+      <c r="I35" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="139"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="126"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="132" t="s">
+      <c r="A36" s="143"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="133" t="s">
+      <c r="D36" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="134"/>
-      <c r="F36" s="141">
+      <c r="E36" s="59"/>
+      <c r="F36" s="64">
         <v>2</v>
       </c>
-      <c r="G36" s="140"/>
-      <c r="H36" s="137" t="s">
+      <c r="G36" s="139"/>
+      <c r="H36" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="I36" s="137" t="s">
+      <c r="I36" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="139"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="63"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="126"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="132" t="s">
+      <c r="A37" s="143"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="133" t="s">
+      <c r="D37" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="134"/>
-      <c r="F37" s="141">
+      <c r="E37" s="59"/>
+      <c r="F37" s="64">
         <v>2</v>
       </c>
-      <c r="G37" s="140"/>
-      <c r="H37" s="137" t="s">
+      <c r="G37" s="139"/>
+      <c r="H37" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="I37" s="137" t="s">
+      <c r="I37" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="139"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="63"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="126"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="132" t="s">
+      <c r="A38" s="143"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="133" t="s">
+      <c r="D38" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="134"/>
-      <c r="F38" s="141">
+      <c r="E38" s="59"/>
+      <c r="F38" s="64">
         <v>2</v>
       </c>
-      <c r="G38" s="140"/>
-      <c r="H38" s="137" t="s">
+      <c r="G38" s="139"/>
+      <c r="H38" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="I38" s="137" t="s">
+      <c r="I38" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="139"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="63"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="126"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="132" t="s">
+      <c r="A39" s="143"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="133" t="s">
+      <c r="D39" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="134"/>
-      <c r="F39" s="141">
+      <c r="E39" s="59"/>
+      <c r="F39" s="64">
         <v>2</v>
       </c>
-      <c r="G39" s="140"/>
-      <c r="H39" s="137" t="s">
+      <c r="G39" s="139"/>
+      <c r="H39" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="I39" s="137" t="s">
+      <c r="I39" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="139"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="63"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="126"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="132" t="s">
+      <c r="A40" s="143"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="133" t="s">
+      <c r="D40" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="134"/>
-      <c r="F40" s="141">
+      <c r="E40" s="59"/>
+      <c r="F40" s="64">
         <v>0.5</v>
       </c>
-      <c r="G40" s="140"/>
-      <c r="H40" s="137" t="s">
+      <c r="G40" s="139"/>
+      <c r="H40" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="I40" s="137" t="s">
+      <c r="I40" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="139"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="63"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="132" t="s">
+      <c r="A41" s="143"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="133" t="s">
+      <c r="D41" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="134"/>
-      <c r="F41" s="141">
+      <c r="E41" s="59"/>
+      <c r="F41" s="64">
         <v>0.5</v>
       </c>
-      <c r="G41" s="116"/>
-      <c r="H41" s="137" t="s">
+      <c r="G41" s="140"/>
+      <c r="H41" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="I41" s="137" t="s">
+      <c r="I41" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="139"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="63"/>
     </row>
     <row r="42" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="127" t="s">
+      <c r="A42" s="143"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="127" t="s">
+      <c r="D42" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="128" t="s">
+      <c r="E42" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="128"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="131"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="56"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="132" t="s">
+      <c r="A43" s="143"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="133" t="s">
+      <c r="D43" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="134"/>
-      <c r="F43" s="141">
+      <c r="E43" s="59"/>
+      <c r="F43" s="64">
         <v>2</v>
       </c>
-      <c r="G43" s="136" t="s">
+      <c r="G43" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="H43" s="137" t="s">
+      <c r="H43" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="I43" s="137" t="s">
+      <c r="I43" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="139"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="126"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="132" t="s">
+      <c r="A44" s="143"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="133" t="s">
+      <c r="D44" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="134"/>
-      <c r="F44" s="141">
+      <c r="E44" s="59"/>
+      <c r="F44" s="64">
         <v>2</v>
       </c>
-      <c r="G44" s="140"/>
-      <c r="H44" s="137" t="s">
+      <c r="G44" s="139"/>
+      <c r="H44" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="137" t="s">
+      <c r="I44" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="139"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="126"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="132" t="s">
+      <c r="A45" s="143"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="133" t="s">
+      <c r="D45" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="134"/>
-      <c r="F45" s="141">
+      <c r="E45" s="59"/>
+      <c r="F45" s="64">
         <v>2</v>
       </c>
-      <c r="G45" s="140"/>
-      <c r="H45" s="137" t="s">
+      <c r="G45" s="139"/>
+      <c r="H45" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="I45" s="137" t="s">
+      <c r="I45" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="139"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="63"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="126"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="132" t="s">
+      <c r="A46" s="143"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="133" t="s">
+      <c r="D46" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="134"/>
-      <c r="F46" s="141">
+      <c r="E46" s="59"/>
+      <c r="F46" s="64">
         <v>2</v>
       </c>
-      <c r="G46" s="140"/>
-      <c r="H46" s="137" t="s">
+      <c r="G46" s="139"/>
+      <c r="H46" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="I46" s="137" t="s">
+      <c r="I46" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="139"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="63"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="126"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="132" t="s">
+      <c r="A47" s="143"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="133" t="s">
+      <c r="D47" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="134"/>
-      <c r="F47" s="141">
+      <c r="E47" s="59"/>
+      <c r="F47" s="64">
         <v>2</v>
       </c>
-      <c r="G47" s="140"/>
-      <c r="H47" s="137" t="s">
+      <c r="G47" s="139"/>
+      <c r="H47" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="I47" s="137" t="s">
+      <c r="I47" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="139"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="63"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="126"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="132" t="s">
+      <c r="A48" s="143"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="133" t="s">
+      <c r="D48" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="134"/>
-      <c r="F48" s="141">
+      <c r="E48" s="59"/>
+      <c r="F48" s="64">
         <v>0.5</v>
       </c>
-      <c r="G48" s="140"/>
-      <c r="H48" s="137" t="s">
+      <c r="G48" s="139"/>
+      <c r="H48" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="I48" s="137" t="s">
+      <c r="I48" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="139"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="63"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="126"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="132" t="s">
+      <c r="A49" s="143"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="141">
+      <c r="E49" s="59"/>
+      <c r="F49" s="64">
         <v>0.5</v>
       </c>
-      <c r="G49" s="116"/>
-      <c r="H49" s="137" t="s">
+      <c r="G49" s="140"/>
+      <c r="H49" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="I49" s="137" t="s">
+      <c r="I49" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="138"/>
-      <c r="M49" s="138"/>
-      <c r="N49" s="139"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G30:G41"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A5:B49"/>
     <mergeCell ref="A1:N1"/>
@@ -5157,6 +5145,13 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G30:G41"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5165,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
